--- a/campionat_regulat.xlsx
+++ b/campionat_regulat.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="25">
   <si>
     <t>FCSB</t>
   </si>
@@ -39,9 +39,6 @@
     <t>FC CFR 1907 Cluj</t>
   </si>
   <si>
-    <t>FC Voluntari</t>
-  </si>
-  <si>
     <t>FC Farul Constanța</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>AFC Hermannstadt</t>
   </si>
   <si>
-    <t>FCU 1948 Craiova</t>
-  </si>
-  <si>
     <t>Poli Iași</t>
   </si>
   <si>
@@ -87,13 +81,25 @@
     <t>L</t>
   </si>
   <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>AFC Unirea 04 Slobozia</t>
+  </si>
+  <si>
+    <t>Gloria Buzău</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>2-1</t>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>1-1</t>
   </si>
 </sst>
 </file>
@@ -180,14 +186,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -244,17 +250,17 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -618,12 +624,12 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -632,7 +638,7 @@
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -648,158 +654,110 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -819,13 +777,11 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -834,9 +790,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -844,21 +798,21 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -869,22 +823,18 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -896,18 +846,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -915,19 +863,15 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -935,7 +879,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -948,22 +892,18 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -977,62 +917,32 @@
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1041,11 +951,9 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1055,11 +963,9 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1071,7 +977,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1080,11 +986,9 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1097,21 +1001,17 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1122,10 +1022,12 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -1134,9 +1036,7 @@
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1151,23 +1051,23 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1177,7 +1077,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1241,12 +1141,12 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="4" bestFit="1" customWidth="1"/>
@@ -1255,9 +1155,9 @@
     <col min="7" max="7" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="4" bestFit="1" customWidth="1"/>
@@ -1271,67 +1171,65 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1341,18 +1239,18 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="P2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1371,12 +1269,12 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1400,7 +1298,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1417,19 +1315,21 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -1440,7 +1340,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1448,7 +1348,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1463,7 +1363,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1472,7 +1372,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1486,7 +1386,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1496,7 +1396,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1509,7 +1409,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1520,7 +1420,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1541,10 +1441,12 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -1555,7 +1457,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1568,7 +1470,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -1578,7 +1480,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1592,7 +1494,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1601,7 +1503,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1616,7 +1518,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -1624,7 +1526,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1637,10 +1539,12 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -1664,13 +1568,13 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1678,7 +1582,9 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1688,7 +1594,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1705,10 +1611,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",B2)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -1733,10 +1639,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Q17">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="D">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="D">
       <formula>NOT(ISERROR(SEARCH("D",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
